--- a/pearson_tables/t2m_netherlands-3-8.xlsx
+++ b/pearson_tables/t2m_netherlands-3-8.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7965234341841035</v>
+        <v>-0.7810574977206343</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6020129009720181</v>
+        <v>-0.6598279200072594</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6742026463620086</v>
+        <v>-0.7874574027300708</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7093644356286837</v>
+        <v>0.6690545589678621</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5495055517741592</v>
+        <v>-0.5021097860384722</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.527724800218765</v>
+        <v>-0.5264775849324478</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7913738259502499</v>
+        <v>-0.7561300374331079</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7062139197057281</v>
+        <v>-0.6984879414044283</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8064930594281798</v>
+        <v>-0.8016463904492847</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7444813659273266</v>
+        <v>0.7567730340215171</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5469196895776414</v>
+        <v>0.5452422622524453</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5488208562837475</v>
+        <v>0.5335943917643384</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6211030503251949</v>
+        <v>0.5434166752942166</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5423207943688771</v>
+        <v>-0.5402719076678451</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5353405701863295</v>
+        <v>0.5362581232391506</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8483153409421769</v>
+        <v>-0.8369907603175941</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5909643539935302</v>
+        <v>-0.5939756606374655</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6696966403962483</v>
+        <v>-0.687149874758077</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6905815924564999</v>
+        <v>0.6853874840347415</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6717639487493325</v>
+        <v>-0.6437703782022719</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5440991668169812</v>
+        <v>-0.5434394135265664</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8587306007856406</v>
+        <v>0.8304173421622492</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7660042490744957</v>
+        <v>-0.7618437608136642</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7877202599533374</v>
+        <v>0.7666860027976375</v>
       </c>
     </row>
   </sheetData>

--- a/pearson_tables/t2m_netherlands-3-8.xlsx
+++ b/pearson_tables/t2m_netherlands-3-8.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7810574977206343</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6598279200072594</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7874574027300708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6690545589678621</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5021097860384722</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5264775849324478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7561300374331079</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6984879414044283</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8016463904492847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7567730340215171</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5452422622524453</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5335943917643384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5434166752942166</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5402719076678451</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5362581232391506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8369907603175941</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5939756606374655</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.687149874758077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6853874840347415</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6437703782022719</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5434394135265664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8304173421622492</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.7618437608136642</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7666860027976375</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
